--- a/src/main/resources/openltablets/catchment.xlsx
+++ b/src/main/resources/openltablets/catchment.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcelo/projects/work/NCEZID/bre/rule-engines/openl-tablets/src/main/resources/openltablets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_projects\NCEZID\openl_bre\src\main\resources\openltablets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F754D054-6619-B943-B19B-064099B78706}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21400" yWindow="14460" windowWidth="28040" windowHeight="17440" xr2:uid="{FB01E05C-C9E7-544D-8F47-7D1DE92D817D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Catchement Areas " sheetId="1" r:id="rId1"/>
+    <sheet name="Case Management" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
-  <si>
-    <t>C1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="52">
   <si>
     <t>RET1</t>
   </si>
@@ -36,9 +33,6 @@
     <t>state</t>
   </si>
   <si>
-    <t>C2</t>
-  </si>
-  <si>
     <t>county</t>
   </si>
   <si>
@@ -48,9 +42,6 @@
     <t>San Francisco</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>Alameda</t>
   </si>
   <si>
@@ -63,29 +54,140 @@
     <t>Colorado</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>String[]</t>
-  </si>
-  <si>
-    <t>Rules String validateCatchement(String state, String county)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>STATE</t>
-  </si>
-  <si>
-    <t>COUNTY</t>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Everything Else!</t>
+  </si>
+  <si>
+    <t>OBR-25</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>OBR[@3.1='77990-0']-5.1</t>
+  </si>
+  <si>
+    <t>PHC178</t>
+  </si>
+  <si>
+    <t>UNK</t>
+  </si>
+  <si>
+    <t>RET-1</t>
+  </si>
+  <si>
+    <t>Not a Case</t>
+  </si>
+  <si>
+    <t>Confirmed present</t>
+  </si>
+  <si>
+    <t>Probable diagnosis</t>
+  </si>
+  <si>
+    <t>Suspected</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>hl7Status</t>
+  </si>
+  <si>
+    <t>caseClassification</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>SimpleRules String classifyCase(String hl7Status, String caseClassif)</t>
+  </si>
+  <si>
+    <t>Test classifyCase classifyCaseTest</t>
+  </si>
+  <si>
+    <t>Hl7status</t>
+  </si>
+  <si>
+    <t>caseClassif</t>
+  </si>
+  <si>
+    <t>Caseclassif</t>
+  </si>
+  <si>
+    <t>_res_</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>SimpleRules Boolean validateCatchment(String state, String county, Integer age)</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>&gt; 18</t>
+  </si>
+  <si>
+    <t>Test validateCatchment validateCatchmentTest</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>County</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>Denver</t>
+  </si>
+  <si>
+    <t>Fulton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgia </t>
+  </si>
+  <si>
+    <t>Cobb</t>
+  </si>
+  <si>
+    <t>Mishigan</t>
+  </si>
+  <si>
+    <t>Lansing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -101,8 +203,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,8 +230,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -150,10 +301,90 @@
         <color indexed="64"/>
       </left>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -162,7 +393,9 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -173,103 +406,62 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -277,9 +469,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -288,9 +478,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -301,6 +489,15 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -311,6 +508,58 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -321,103 +570,130 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -425,7 +701,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -433,63 +709,191 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -805,144 +1209,493 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60677CDC-9B85-B34F-A260-F0892F4F885C}">
-  <dimension ref="B2:F15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:D13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="19.875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="19.875" style="2" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="19" t="s">
+    <row r="2" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="C5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="29"/>
+      <c r="E6" s="30"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="29"/>
+      <c r="E7" s="30"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="30"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="31"/>
+    </row>
+    <row r="10" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="5" t="s">
+      <c r="C14" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D14" s="74" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="75" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="76" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="78" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="80" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="81" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="82" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="18" t="s">
+      <c r="D17" s="29"/>
+      <c r="E17" s="83" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="82" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="29"/>
+      <c r="E18" s="83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="29"/>
+      <c r="E19" s="84" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="C20" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="29">
+        <v>25</v>
+      </c>
+      <c r="E20" s="84" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="29">
+        <v>18</v>
+      </c>
+      <c r="E21" s="84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="F15" t="s">
-        <v>15</v>
+      <c r="C23" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="29"/>
+      <c r="E23" s="84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="86" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="86">
+        <v>25</v>
+      </c>
+      <c r="E24" s="87" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:D3"/>
+  <mergeCells count="3">
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B13:E13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.25" style="11" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="40"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="47" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="48"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="54"/>
+      <c r="D7" s="49"/>
+    </row>
+    <row r="8" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="55">
+        <v>410605003</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="56"/>
+      <c r="D9" s="42"/>
+    </row>
+    <row r="10" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="32">
+        <v>2931005</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="D11" s="44"/>
+    </row>
+    <row r="12" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="34">
+        <v>415684004</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="35"/>
+      <c r="D13" s="46"/>
+    </row>
+    <row r="14" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="37"/>
+      <c r="D15" s="51"/>
+    </row>
+    <row r="16" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="52"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+    </row>
+    <row r="18" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="58"/>
+      <c r="D19" s="59"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="62" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="65" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/openltablets/catchment.xlsx
+++ b/src/main/resources/openltablets/catchment.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_projects\NCEZID\openl_bre\src\main\resources\openltablets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcelo/projects/work/NCEZID/openl_bre/src/main/resources/openltablets/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8604A85C-54EA-FD4D-89B6-B149DEBBDCF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11160"/>
+    <workbookView xWindow="29080" yWindow="8600" windowWidth="26260" windowHeight="22060" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Catchement Areas " sheetId="1" r:id="rId1"/>
-    <sheet name="Case Management" sheetId="2" r:id="rId2"/>
+    <sheet name="Case Management" sheetId="2" r:id="rId1"/>
+    <sheet name="Catchement Areas " sheetId="1" r:id="rId2"/>
+    <sheet name="Using Model" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="68">
   <si>
     <t>RET1</t>
   </si>
@@ -159,9 +161,6 @@
     <t>15</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
     <t>Los Angeles</t>
   </si>
   <si>
@@ -181,13 +180,64 @@
   </si>
   <si>
     <t>Lansing</t>
+  </si>
+  <si>
+    <t>DataType CatchmentArea</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>org.openl.rules.java</t>
+  </si>
+  <si>
+    <t>import</t>
+  </si>
+  <si>
+    <t>com.baeldung.openltablets.model</t>
+  </si>
+  <si>
+    <t>Rules Boolean validateCatchmentModel(CatchmentArea c)</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>age &gt;= min</t>
+  </si>
+  <si>
+    <t>Integer min</t>
+  </si>
+  <si>
+    <t>STATE</t>
+  </si>
+  <si>
+    <t>COUNTY</t>
+  </si>
+  <si>
+    <t>IntValue</t>
+  </si>
+  <si>
+    <t>Adults Only</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -210,8 +260,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,8 +334,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="8"/>
+        <bgColor indexed="63"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="33">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -697,11 +783,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="59"/>
+      </left>
+      <right style="thin">
+        <color indexed="59"/>
+      </right>
+      <top style="thin">
+        <color indexed="59"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="59"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="59"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -766,105 +905,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -881,13 +927,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -895,6 +935,177 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1209,299 +1420,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:E13"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="19.875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
-    <col min="5" max="5" width="19.875" style="2" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="70" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="70" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="30" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="30"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="30"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="30"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="31"/>
-    </row>
-    <row r="10" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="74" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="74" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="75" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="76" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="78" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="79" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="80" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="81" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="82" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="83" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="82" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="83" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="84" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="29">
-        <v>25</v>
-      </c>
-      <c r="E20" s="84" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="29">
-        <v>18</v>
-      </c>
-      <c r="E21" s="84" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="84" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="84" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="85" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="86" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="86">
-        <v>25</v>
-      </c>
-      <c r="E24" s="87" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B13:E13"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.25" style="11" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="8.83203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.1640625" style="11" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.83203125" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="22" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="38" t="s">
+    <row r="1" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="40"/>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C2" s="66"/>
+      <c r="D2" s="67"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" s="12" t="s">
         <v>26</v>
       </c>
@@ -1512,7 +1454,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="15" t="s">
         <v>13</v>
       </c>
@@ -1523,166 +1465,206 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="18" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="19"/>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="74" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="48"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="75"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="49"/>
-    </row>
-    <row r="8" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="81"/>
+      <c r="D7" s="76"/>
+    </row>
+    <row r="8" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="55">
+      <c r="C8" s="82">
         <v>410605003</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="68" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="42"/>
-    </row>
-    <row r="10" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="83"/>
+      <c r="D9" s="69"/>
+    </row>
+    <row r="10" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="59">
         <v>2931005</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="70" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B11" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="44"/>
-    </row>
-    <row r="12" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="60"/>
+      <c r="D11" s="71"/>
+    </row>
+    <row r="12" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="34">
+      <c r="C12" s="61">
         <v>415684004</v>
       </c>
-      <c r="D12" s="45" t="s">
+      <c r="D12" s="72" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B13" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="46"/>
-    </row>
-    <row r="14" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="62"/>
+      <c r="D13" s="73"/>
+    </row>
+    <row r="14" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="50" t="s">
+      <c r="D14" s="77" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B15" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="51"/>
-    </row>
-    <row r="16" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="64"/>
+      <c r="D15" s="78"/>
+    </row>
+    <row r="16" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="25"/>
       <c r="C16" s="26"/>
-      <c r="D16" s="52"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="79"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="16"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
     </row>
-    <row r="18" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="57" t="s">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+    </row>
+    <row r="26" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="59"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="60" t="s">
+      <c r="C27" s="57"/>
+      <c r="D27" s="58"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="61" t="s">
+      <c r="C28" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="62" t="s">
+      <c r="D28" s="32" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="63" t="s">
+    <row r="29" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="64" t="s">
+      <c r="C29" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="65" t="s">
+      <c r="D29" s="35" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="7" t="s">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7" t="s">
+      <c r="C30" s="7"/>
+      <c r="D30" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="29" t="s">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B31" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C31" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="29" t="s">
+      <c r="D31" s="29" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B27:D27"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="C14:C15"/>
@@ -1698,4 +1680,484 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:G24"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="19.83203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" style="2" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="29"/>
+      <c r="E6" s="51"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="29"/>
+      <c r="E7" s="51"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="51"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="52"/>
+    </row>
+    <row r="10" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="58"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="45" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="105" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="106" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="110"/>
+      <c r="E17" s="47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="106" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="110"/>
+      <c r="E18" s="47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="110"/>
+      <c r="E19" s="47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="107" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="110">
+        <v>25</v>
+      </c>
+      <c r="E20" s="47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="107" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="110">
+        <v>18</v>
+      </c>
+      <c r="E21" s="47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="107" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="107" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="110"/>
+      <c r="E23" s="47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="111">
+        <v>25</v>
+      </c>
+      <c r="E24" s="50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B13:E13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6597CCA-6EAC-2342-8C1F-07211C2DC0B6}">
+  <dimension ref="B3:E34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" customWidth="1"/>
+    <col min="9" max="9" width="39.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="84"/>
+    </row>
+    <row r="4" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="96" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="98"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="99" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="100" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="101" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="87" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="87" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="88"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="86" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="87" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="88"/>
+    </row>
+    <row r="9" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="102" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="103" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="103" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="104"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="94" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="29">
+        <v>0</v>
+      </c>
+      <c r="E11" s="94"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="29">
+        <v>0</v>
+      </c>
+      <c r="E12" s="94"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="29">
+        <v>18</v>
+      </c>
+      <c r="E13" s="94"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="95"/>
+    </row>
+    <row r="15" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="90" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="90"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="89" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="89" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="89" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B32" s="93" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="93"/>
+      <c r="D32" s="93"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="91" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="92"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="92"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E10:E14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>